--- a/admin/templates/LINE LIST.xlsx
+++ b/admin/templates/LINE LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ex\devs\outbreak\admin\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A8FE3D-09FA-4D5F-8EC5-328B73F5EA57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A50420-B985-432D-8511-F957CD06A6C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,40 +16,14 @@
     <sheet name="52_MW" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_2_MW">'52_MW'!$B$1:$J$416</definedName>
+    <definedName name="_2_MW">'52_MW'!$B$5:$J$420</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>A satisfied Microsoft Office user</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Microsoft JET Created Table]009100710080808071010</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>FullName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Sex</t>
   </si>
@@ -77,38 +51,82 @@
   <si>
     <t>NO.</t>
   </si>
+  <si>
+    <t>City Government Of Balanga</t>
+  </si>
+  <si>
+    <t>City Hall Annex, Balanga City</t>
+  </si>
+  <si>
+    <t>Outbreak Control and Prevention Program</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="72"/>
       <name val="MS Sans Serif"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,23 +134,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -150,6 +202,129 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1815354</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>62135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2812676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>193301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 3" descr="logo balanga.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAF1149-3581-4ADB-B4FC-A0E4EFE54A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3372972" y="62135"/>
+          <a:ext cx="997322" cy="1005225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="114300" prst="artDeco"/>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1288676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 7" descr="no to mosquito.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A0A93A-7CB1-45C8-AE9D-EA6E4FE59C9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8662147" y="44824"/>
+          <a:ext cx="1042147" cy="998073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="114300" prst="artDeco"/>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,17 +647,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J416"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BC420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
@@ -491,123 +668,200 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+    </row>
+    <row r="2" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:55" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3013,10 +3267,37 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A417" s="5"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A418" s="5"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A419" s="5"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A420" s="5"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:J416">
-    <sortCondition ref="H1"/>
-  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3024,6 +3305,6 @@
     <oddHeader>&amp;F</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>